--- a/Inventor/Assembly v2/PARTS LIST.xlsx
+++ b/Inventor/Assembly v2/PARTS LIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\2023-FYP\Inventor\Assembly v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E050D551-0700-4B28-990A-D500C8DB1176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE05160E-AF0F-4C37-BEA8-B2C1D8DDB560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts List External" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="81">
   <si>
     <t>ITEM</t>
   </si>
@@ -248,13 +248,22 @@
     <t>NETRAM</t>
   </si>
   <si>
-    <t>must get quotes</t>
-  </si>
-  <si>
-    <t>EXTERNAL MACHINE WORKSHOP</t>
-  </si>
-  <si>
-    <t>must contact supervisor</t>
+    <t>in queue</t>
+  </si>
+  <si>
+    <t>purchasing material</t>
+  </si>
+  <si>
+    <t>ordered coupling</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>Micro robotics</t>
+  </si>
+  <si>
+    <t>DATE EXPECTED</t>
   </si>
 </sst>
 </file>
@@ -300,18 +309,189 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{3B4210D2-1C4A-4097-842F-DDB933518325}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -322,6 +502,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{155528D6-D090-416A-BD3C-C2F2782FABEF}" name="Table1" displayName="Table1" ref="A1:L27" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:L27" xr:uid="{155528D6-D090-416A-BD3C-C2F2782FABEF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L27">
+    <sortCondition ref="F1:F27"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{1C3E134B-A9BD-4159-91DD-CC1C5F962C65}" name="ITEM" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{F1160CE2-887F-450A-A4E2-94FDCEC05EA4}" name="DESCRIPTION" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{FE77B6CC-5B9E-4914-9CCA-1EC4354D38ED}" name="QTY" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{550CFF89-2F1A-411C-8B04-B003CD385B54}" name="MATERIAL -SPECIFICATIONS" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{F5C6A150-F599-410B-A3C7-8B0422A39817}" name="PART NUMBER" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{575C179A-A179-4FE7-A923-0966103AA9DF}" name="FROM WHERE" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{3732A53C-8963-445F-9978-BBF4962A475E}" name="READY TO ORDER?" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{C83274CA-21D6-4F4D-B013-14261D8B9773}" name="DATE EXPECTED" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{C3AE2145-E3FE-425D-A31E-65F92CDFA479}" name="STATUS" dataCellStyle="Normal 2"/>
+    <tableColumn id="10" xr3:uid="{A643C286-CED9-4B04-96F9-7C730E20CA50}" name="HAVE IT?" dataCellStyle="Normal 2"/>
+    <tableColumn id="11" xr3:uid="{A9DE98EE-E1DA-407E-BEFF-B886DC1D7473}" name="ANY PROBLEMS" dataCellStyle="Normal 2"/>
+    <tableColumn id="12" xr3:uid="{F6460EEC-4078-4A58-8ACF-22A9CB001F6F}" name="IDENTICAL?" dataCellStyle="Normal 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{69391979-08CD-43FE-AB9A-EB74DA695163}" name="Table2" displayName="Table2" ref="A1:K27" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:K27" xr:uid="{69391979-08CD-43FE-AB9A-EB74DA695163}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K27">
+    <sortCondition ref="F1:F27"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{04C9E786-1A53-42DB-A3D2-1BA6FB343897}" name="ITEM" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{63EF3927-C9B1-4776-9AF2-D850799B891A}" name="DESCRIPTION" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2E2CA855-23E3-4795-912D-72C4A67C1366}" name="QTY" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E93118B7-E656-403C-9ED5-77FAA3607023}" name="MATERIAL -SPECIFICATIONS" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{5E41CCF7-E660-4088-8C5D-54D5F426F2B5}" name="PART NUMBER"/>
+    <tableColumn id="6" xr3:uid="{793716F6-332B-486E-A7A1-21E14A544046}" name="FROM WHERE" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{20D0F848-F5FA-4344-9AEA-2C08850F150A}" name="READY TO ORDER?"/>
+    <tableColumn id="8" xr3:uid="{FC370193-718F-45BA-A94D-BFD0DA83366D}" name="STATUS"/>
+    <tableColumn id="9" xr3:uid="{A6CFEEE8-1BC1-4A19-9635-E05FFB974CC9}" name="HAVE IT?"/>
+    <tableColumn id="10" xr3:uid="{49C773C0-106B-4869-9BFB-794A033848DC}" name="ANY PROBLEMS" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{1F129277-F278-4102-A8DE-2DB88C74D58B}" name="IDENTICAL?" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,28 +848,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FCF332-C822-4024-A067-151AC5C8C7A9}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="7" max="7" width="19.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -665,426 +894,441 @@
         <v>64</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>72</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>58</v>
+      <c r="E6" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="H6" s="9">
+        <v>45142</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>73</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="J8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="H9" s="9">
+        <v>45142</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="J10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4">
         <v>8</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>73</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F15" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="H15" s="9">
+        <v>45142</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>77</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="H16" s="9">
+        <v>45142</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="H17" s="9">
+        <v>45142</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>78</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="9">
+        <v>45142</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4">
         <v>8</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="4">
-        <v>3</v>
+      <c r="D19" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="H19" s="9">
+        <v>45142</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>78</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C20" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>59</v>
@@ -1092,22 +1336,25 @@
       <c r="F20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="H20" s="9">
+        <v>45142</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>59</v>
@@ -1115,74 +1362,95 @@
       <c r="F21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="H21" s="9">
+        <v>45142</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
       </c>
+      <c r="D22" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F22" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="H22" s="9">
+        <v>45142</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>78</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="H23" s="9">
+        <v>45142</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>78</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="4">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="H24" s="9">
+        <v>45142</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>78</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -1198,14 +1466,17 @@
       <c r="F25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="H25" s="9">
+        <v>45142</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -1221,14 +1492,17 @@
       <c r="F26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="H26" s="9">
+        <v>45142</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -1244,15 +1518,21 @@
       <c r="F27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="H27" s="9">
+        <v>45142</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1261,21 +1541,22 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1315,68 +1596,64 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="F4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>73</v>
@@ -1384,43 +1661,40 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="K5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>77</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>73</v>
@@ -1428,25 +1702,21 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>77</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>73</v>
@@ -1454,15 +1724,15 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -1474,22 +1744,20 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>73</v>
@@ -1497,13 +1765,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>71</v>
@@ -1517,22 +1785,20 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>77</v>
+        <v>12</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>73</v>
@@ -1540,25 +1806,21 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>77</v>
+        <v>12</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>73</v>
@@ -1566,152 +1828,168 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
         <v>73</v>
       </c>
@@ -1732,9 +2010,10 @@
       <c r="F20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="G20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
         <v>73</v>
       </c>
@@ -1755,143 +2034,171 @@
       <c r="F21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="G21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="2"/>
       <c r="K22" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="2"/>
       <c r="K23" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1">
         <v>12</v>
       </c>
-      <c r="F24" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="D24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>